--- a/功能权重.xlsx
+++ b/功能权重.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PCwinResouceDisk\Other\idea\project\qqbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2FDAFAB-CEF8-4745-9983-A69B45C45F40}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DB0184-36B6-40E2-B4FA-8A99258A8F03}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6945" xr2:uid="{0753C2DC-0BF9-4E64-B4CE-6CD98FC0D34E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$20</definedName>
+  </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
   <si>
     <t>功能名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,10 +164,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 监听指定群聊成员撤回内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>群聊撤回</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -202,6 +201,38 @@
   </si>
   <si>
     <t>群戳一戳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求权重比正常群聊高一级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupReReadingModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群聊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监听指定群聊成员撤回内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求权重比群戳一戳高一级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求权重比监听指定群聊成员撤回高一级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群聊复读机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -263,11 +294,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -584,10 +624,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00F7D32-4AD7-4289-A926-829D315EFA77}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -595,23 +636,27 @@
     <col min="1" max="1" width="28.25" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
     <col min="4" max="4" width="12.75" customWidth="1"/>
+    <col min="5" max="5" width="43.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -624,8 +669,9 @@
       <c r="D2" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -638,8 +684,11 @@
       <c r="D3" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -652,8 +701,11 @@
       <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -666,8 +718,9 @@
       <c r="D5" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -680,8 +733,11 @@
       <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -694,8 +750,11 @@
       <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -708,8 +767,11 @@
       <c r="D8" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -722,8 +784,11 @@
       <c r="D9" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -731,139 +796,173 @@
         <v>12</v>
       </c>
       <c r="C10" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="1">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C12" s="1">
         <v>5</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D20" xr:uid="{81DD7882-FD13-478C-830D-34F96406610F}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/功能权重.xlsx
+++ b/功能权重.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PCwinResouceDisk\Other\idea\project\qqbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DB0184-36B6-40E2-B4FA-8A99258A8F03}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F2310B-6FF0-4E46-9519-2136DE10807D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6945" xr2:uid="{0753C2DC-0BF9-4E64-B4CE-6CD98FC0D34E}"/>
   </bookViews>
@@ -626,9 +626,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00F7D32-4AD7-4289-A926-829D315EFA77}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
